--- a/test_en.xlsx
+++ b/test_en.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,23 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Insufficient Logging  of Exceptions</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_en.xlsx
+++ b/test_en.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Low PAGE 13 OF  69</t>
         </is>
       </c>
     </row>

--- a/test_en.xlsx
+++ b/test_en.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Low PAGE 13 OF  69</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
